--- a/Analysis/_ALL-COMMITS.xlsx
+++ b/Analysis/_ALL-COMMITS.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD860A4-1A5F-4536-A7B2-760AF687BEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB445C-8079-4011-A07D-CDEEB678D2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15435" xr2:uid="{C5C4BD2C-E73F-41B9-83EB-7F32660C1A02}"/>
+    <workbookView xWindow="5625" yWindow="5685" windowWidth="38700" windowHeight="15375" xr2:uid="{C5C4BD2C-E73F-41B9-83EB-7F32660C1A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$1273</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$2:$C$1273</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$C$1285:$C$1299</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="2553">
   <si>
     <t>First Commit Pull Request</t>
   </si>
@@ -7686,6 +7691,12 @@
   </si>
   <si>
     <t>Experienced:</t>
+  </si>
+  <si>
+    <t>Bot:</t>
+  </si>
+  <si>
+    <t>Organizational:</t>
   </si>
 </sst>
 </file>
@@ -8047,10 +8058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D12A2A-EAEA-4ADA-A8A3-4599395B2DB5}">
-  <dimension ref="A1:K1280"/>
+  <dimension ref="A1:K1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
-      <selection activeCell="G1264" sqref="G1264"/>
+    <sheetView tabSelected="1" topLeftCell="B1233" workbookViewId="0">
+      <selection activeCell="K1283" sqref="K1283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49219,6 +49230,24 @@
         <v>214</v>
       </c>
     </row>
+    <row r="1281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1281" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1281">
+        <f>COUNTIF(C2:C1273,"BOT")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J1283" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="K1283">
+        <f>COUNTIF(K2:K1273,"*Organizational*")</f>
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Analysis/_ALL-COMMITS.xlsx
+++ b/Analysis/_ALL-COMMITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB445C-8079-4011-A07D-CDEEB678D2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272509C0-2EDB-4261-AF6B-6C07A8F8DC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="5685" windowWidth="38700" windowHeight="15375" xr2:uid="{C5C4BD2C-E73F-41B9-83EB-7F32660C1A02}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="2553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2566">
   <si>
     <t>First Commit Pull Request</t>
   </si>
@@ -7697,6 +7697,45 @@
   </si>
   <si>
     <t>Organizational:</t>
+  </si>
+  <si>
+    <t>Bug Fix Correspondence:</t>
+  </si>
+  <si>
+    <t>Enhancing Correspondence:</t>
+  </si>
+  <si>
+    <t>Feature Correspondence:</t>
+  </si>
+  <si>
+    <t>Documentation Correspondence:</t>
+  </si>
+  <si>
+    <t>Testing Correspondence:</t>
+  </si>
+  <si>
+    <t>Refactoring Correspondence:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Bug Fix Correspondence</t>
+  </si>
+  <si>
+    <t>Enhancing a Feature Correspondence</t>
+  </si>
+  <si>
+    <t>Feature Correspondence</t>
+  </si>
+  <si>
+    <t>Documentation Correspondence</t>
+  </si>
+  <si>
+    <t>Testing Correspondence</t>
+  </si>
+  <si>
+    <t>Refactoring Correspondence</t>
   </si>
 </sst>
 </file>
@@ -8058,10 +8097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D12A2A-EAEA-4ADA-A8A3-4599395B2DB5}">
-  <dimension ref="A1:K1283"/>
+  <dimension ref="A1:K1290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1233" workbookViewId="0">
-      <selection activeCell="K1283" sqref="K1283"/>
+    <sheetView tabSelected="1" topLeftCell="B1249" workbookViewId="0">
+      <selection activeCell="J1290" sqref="J1290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49239,13 +49278,201 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1283" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J1283" s="1" t="s">
+    <row r="1282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J1282" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="K1283">
+      <c r="K1282">
         <f>COUNTIF(K2:K1273,"*Organizational*")</f>
         <v>58</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E1284" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F1284" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G1284" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H1284" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I1284" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="J1284" s="1" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1285" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1285">
+        <f>SUMPRODUCT(F2:F1273,E2:E1273)</f>
+        <v>14</v>
+      </c>
+      <c r="G1285">
+        <f>SUMPRODUCT(G2:G1273,E2:E1273)</f>
+        <v>1</v>
+      </c>
+      <c r="H1285">
+        <f>SUMPRODUCT(H2:H1273,E2:E1273)</f>
+        <v>24</v>
+      </c>
+      <c r="I1285">
+        <f>SUMPRODUCT(I2:I1273,E2:E1273)</f>
+        <v>7</v>
+      </c>
+      <c r="J1285">
+        <f>SUMPRODUCT(J2:J1273,E2:E1273)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1286" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E1286">
+        <f>SUMPRODUCT(E2:E1273,F2:F1273)</f>
+        <v>14</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G1286">
+        <f>SUMPRODUCT(G2:G1273,F2:F1273)</f>
+        <v>9</v>
+      </c>
+      <c r="H1286">
+        <f>SUMPRODUCT(H2:H1273,F2:F1273)</f>
+        <v>6</v>
+      </c>
+      <c r="I1286">
+        <f>SUMPRODUCT(I2:I1273,F2:F1273)</f>
+        <v>7</v>
+      </c>
+      <c r="J1286">
+        <f>SUMPRODUCT(J2:J1273,F2:F1273)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1287" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1287">
+        <f>SUMPRODUCT(E2:E1273,G2:G1273)</f>
+        <v>1</v>
+      </c>
+      <c r="F1287">
+        <f>SUMPRODUCT(F2:F1273,G2:G1273)</f>
+        <v>9</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>2559</v>
+      </c>
+      <c r="H1287">
+        <f>SUMPRODUCT(H2:H1273,G2:G1273)</f>
+        <v>10</v>
+      </c>
+      <c r="I1287">
+        <f>SUMPRODUCT(I2:I1273,G2:G1273)</f>
+        <v>13</v>
+      </c>
+      <c r="J1287">
+        <f>SUMPRODUCT(J2:J1273,G2:G1273)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1288" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E1288">
+        <f>SUMPRODUCT(E2:E1273,H2:H1273)</f>
+        <v>24</v>
+      </c>
+      <c r="F1288">
+        <f>SUMPRODUCT(F2:F1273,H2:H1273)</f>
+        <v>6</v>
+      </c>
+      <c r="G1288">
+        <f>SUMPRODUCT(G2:G1273,H2:H1273)</f>
+        <v>10</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I1288">
+        <f>SUMPRODUCT(I2:I1273,H2:H1273)</f>
+        <v>7</v>
+      </c>
+      <c r="J1288">
+        <f>SUMPRODUCT(J2:J1273,H2:H1273)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1289" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E1289">
+        <f>SUMPRODUCT(E2:E1273,I2:I1273)</f>
+        <v>7</v>
+      </c>
+      <c r="F1289">
+        <f>SUMPRODUCT(F2:F1273,I2:I1273)</f>
+        <v>7</v>
+      </c>
+      <c r="G1289">
+        <f>SUMPRODUCT(G2:G1273,I2:I1273)</f>
+        <v>13</v>
+      </c>
+      <c r="H1289">
+        <f>SUMPRODUCT(H2:H1273,I2:I1273)</f>
+        <v>7</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J1289">
+        <f>SUMPRODUCT(J2:J1273,I2:I1273)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1290" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E1290">
+        <f>SUMPRODUCT(E2:E1273,J2:J1273)</f>
+        <v>37</v>
+      </c>
+      <c r="F1290">
+        <f>SUMPRODUCT(F2:F1273,J2:J1273)</f>
+        <v>45</v>
+      </c>
+      <c r="G1290">
+        <f>SUMPRODUCT(G2:G1273,J2:J1273)</f>
+        <v>13</v>
+      </c>
+      <c r="H1290">
+        <f>SUMPRODUCT(H2:H1273,J2:J1273)</f>
+        <v>12</v>
+      </c>
+      <c r="I1290">
+        <f>SUMPRODUCT(I2:I1273,J2:J1273)</f>
+        <v>13</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>2559</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_ALL-COMMITS.xlsx
+++ b/Analysis/_ALL-COMMITS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272509C0-2EDB-4261-AF6B-6C07A8F8DC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A61645E-BF09-4E1F-B798-8F4EE401B5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="5685" windowWidth="38700" windowHeight="15375" xr2:uid="{C5C4BD2C-E73F-41B9-83EB-7F32660C1A02}"/>
+    <workbookView xWindow="-3885" yWindow="4890" windowWidth="38700" windowHeight="15375" xr2:uid="{C5C4BD2C-E73F-41B9-83EB-7F32660C1A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$1273</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$2:$C$1273</definedName>
@@ -7798,6 +7801,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_ALL-ISSUES"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="870">
+          <cell r="E870">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8099,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D12A2A-EAEA-4ADA-A8A3-4599395B2DB5}">
   <dimension ref="A1:K1290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1249" workbookViewId="0">
-      <selection activeCell="J1290" sqref="J1290"/>
+    <sheetView tabSelected="1" topLeftCell="B1263" workbookViewId="0">
+      <selection activeCell="L1275" sqref="L1275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49340,8 +49362,8 @@
         <v>2554</v>
       </c>
       <c r="E1286">
-        <f>SUMPRODUCT(E2:E1273,F2:F1273)</f>
-        <v>14</v>
+        <f>'[1]_ALL-ISSUES'!$E$870</f>
+        <v>10</v>
       </c>
       <c r="F1286" t="s">
         <v>2559</v>
